--- a/Result/checksun_f/2025-06-19.xlsx
+++ b/Result/checksun_f/2025-06-19.xlsx
@@ -722,13 +722,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>-1</v>
@@ -948,17 +948,17 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1168,16 +1168,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1391,20 +1391,20 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-26</v>
+        <v>-1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1614,20 +1614,20 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B6" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>-24</v>
+        <v>-9</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1837,20 +1837,20 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="B7" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-29</v>
+        <v>-26</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2068,20 +2068,20 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="B8" t="n">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>99</v>
+        <v>-22</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2299,20 +2299,20 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2530,20 +2530,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -3219,20 +3219,20 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="B13" t="n">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="C13" t="n">
         <v>-5</v>
       </c>
       <c r="D13" t="n">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -3438,20 +3438,20 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="B14" t="n">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="C14" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>-22</v>
+        <v>-20</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -3657,16 +3657,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="B15" t="n">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D15" t="n">
-        <v>-19</v>
+        <v>-14</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3876,16 +3876,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="B16" t="n">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="C16" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D16" t="n">
-        <v>-19</v>
+        <v>-15</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -4095,20 +4095,20 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>183</v>
+        <v>103</v>
       </c>
       <c r="C17" t="n">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -4314,20 +4314,20 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="B18" t="n">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="C18" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="D18" t="n">
-        <v>-14</v>
+        <v>-4</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -4533,20 +4533,20 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>-2</v>
       </c>
       <c r="D19" t="n">
-        <v>209</v>
+        <v>-10</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -4750,20 +4750,20 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -4967,20 +4967,20 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -5614,16 +5614,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -5843,16 +5843,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6072,16 +6072,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6301,16 +6301,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6530,20 +6530,20 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -6759,20 +6759,20 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B29" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C29" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D29" t="n">
         <v>-2</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -6988,20 +6988,20 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="B30" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="D30" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -7220,17 +7220,17 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -7446,20 +7446,20 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -8129,20 +8129,20 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>240</v>
+        <v>133</v>
       </c>
       <c r="C35" t="n">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>-25</v>
+        <v>-9</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -8348,20 +8348,20 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="B36" t="n">
-        <v>265</v>
+        <v>142</v>
       </c>
       <c r="C36" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D36" t="n">
-        <v>-4</v>
+        <v>-23</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -8567,20 +8567,20 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B37" t="n">
-        <v>269</v>
+        <v>165</v>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-19</v>
+        <v>-1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -8786,20 +8786,20 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="B38" t="n">
-        <v>288</v>
+        <v>166</v>
       </c>
       <c r="C38" t="n">
-        <v>-15</v>
+        <v>-4</v>
       </c>
       <c r="D38" t="n">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -9005,20 +9005,20 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B39" t="n">
-        <v>315</v>
+        <v>166</v>
       </c>
       <c r="C39" t="n">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>-27</v>
+        <v>-15</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -9224,13 +9224,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>342</v>
+        <v>181</v>
       </c>
       <c r="C40" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>-12</v>
@@ -9443,20 +9443,20 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>354</v>
+        <v>193</v>
       </c>
       <c r="C41" t="n">
-        <v>19</v>
+        <v>-13</v>
       </c>
       <c r="D41" t="n">
-        <v>354</v>
+        <v>-46</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -9662,20 +9662,20 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -9881,20 +9881,20 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -10534,20 +10534,20 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B46" t="n">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="C46" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -10765,20 +10765,20 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B47" t="n">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="C47" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -10988,16 +10988,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B48" t="n">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="C48" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -11211,20 +11211,20 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B49" t="n">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="C49" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -11434,20 +11434,20 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B50" t="n">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="C50" t="n">
         <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>-24</v>
+        <v>-1</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -11657,20 +11657,20 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="C51" t="n">
         <v>-6</v>
       </c>
       <c r="D51" t="n">
-        <v>25</v>
+        <v>-5</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -11880,20 +11880,20 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B52" t="n">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="C52" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>178</v>
+        <v>-45</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -12103,20 +12103,20 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -12326,20 +12326,20 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -12994,13 +12994,13 @@
         <v>5</v>
       </c>
       <c r="B57" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -13222,20 +13222,20 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B58" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>-19</v>
+        <v>-9</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -13453,20 +13453,20 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C59" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -13684,20 +13684,20 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="C60" t="n">
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="D60" t="n">
-        <v>-54</v>
+        <v>-17</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -13915,20 +13915,20 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="B61" t="n">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="C61" t="n">
-        <v>-14</v>
+        <v>-6</v>
       </c>
       <c r="D61" t="n">
-        <v>5</v>
+        <v>-60</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -14146,16 +14146,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="B62" t="n">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="C62" t="n">
         <v>-9</v>
       </c>
       <c r="D62" t="n">
-        <v>-17</v>
+        <v>-58</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -14377,20 +14377,20 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B63" t="n">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="C63" t="n">
-        <v>26</v>
+        <v>-12</v>
       </c>
       <c r="D63" t="n">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -14608,20 +14608,20 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -14839,20 +14839,20 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -15528,20 +15528,20 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>-24</v>
+        <v>-6</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -15749,20 +15749,20 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="C69" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>-31</v>
+        <v>13</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -15970,16 +15970,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="B70" t="n">
-        <v>229</v>
+        <v>93</v>
       </c>
       <c r="C70" t="n">
         <v>8</v>
       </c>
       <c r="D70" t="n">
-        <v>-59</v>
+        <v>-35</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -16191,20 +16191,20 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-20</v>
+        <v>-9</v>
       </c>
       <c r="B71" t="n">
-        <v>288</v>
+        <v>128</v>
       </c>
       <c r="C71" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>-44</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -16412,20 +16412,20 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="B72" t="n">
-        <v>287</v>
+        <v>172</v>
       </c>
       <c r="C72" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="D72" t="n">
-        <v>-12</v>
+        <v>-43</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -16633,16 +16633,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-10</v>
+        <v>-18</v>
       </c>
       <c r="B73" t="n">
-        <v>299</v>
+        <v>215</v>
       </c>
       <c r="C73" t="n">
-        <v>-17</v>
+        <v>-12</v>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -16854,20 +16854,20 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="B74" t="n">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="C74" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="D74" t="n">
-        <v>294</v>
+        <v>32</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -17075,20 +17075,20 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -17296,20 +17296,20 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -17955,20 +17955,20 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
+        <v>1</v>
+      </c>
+      <c r="B79" t="n">
+        <v>19</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2</v>
+      </c>
+      <c r="D79" t="n">
         <v>-3</v>
       </c>
-      <c r="B79" t="n">
-        <v>41</v>
-      </c>
-      <c r="C79" t="n">
-        <v>3</v>
-      </c>
-      <c r="D79" t="n">
-        <v>-10</v>
-      </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -18186,20 +18186,20 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B80" t="n">
+        <v>22</v>
+      </c>
+      <c r="C80" t="n">
+        <v>6</v>
+      </c>
+      <c r="D80" t="n">
         <v>-6</v>
       </c>
-      <c r="B80" t="n">
-        <v>51</v>
-      </c>
-      <c r="C80" t="n">
-        <v>-4</v>
-      </c>
-      <c r="D80" t="n">
-        <v>-74</v>
-      </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -18417,20 +18417,20 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="B81" t="n">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="C81" t="n">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="D81" t="n">
-        <v>-93</v>
+        <v>-11</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -18648,20 +18648,20 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="B82" t="n">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="C82" t="n">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="D82" t="n">
-        <v>-75</v>
+        <v>-69</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -18879,16 +18879,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="B83" t="n">
-        <v>293</v>
+        <v>108</v>
       </c>
       <c r="C83" t="n">
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="D83" t="n">
-        <v>-62</v>
+        <v>-88</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -19110,16 +19110,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B84" t="n">
-        <v>355</v>
+        <v>196</v>
       </c>
       <c r="C84" t="n">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="D84" t="n">
-        <v>-11</v>
+        <v>-69</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -19341,20 +19341,20 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B85" t="n">
-        <v>366</v>
+        <v>265</v>
       </c>
       <c r="C85" t="n">
-        <v>35</v>
+        <v>-6</v>
       </c>
       <c r="D85" t="n">
-        <v>366</v>
+        <v>7</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -19572,20 +19572,20 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -19803,20 +19803,20 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -20492,13 +20492,13 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
         <v>2</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -20721,16 +20721,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -20950,20 +20950,20 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
         <v>3</v>
       </c>
-      <c r="C92" t="n">
-        <v>0</v>
-      </c>
       <c r="D92" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -21179,20 +21179,20 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="B93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D93" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -21408,20 +21408,20 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="B94" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D94" t="n">
-        <v>-13</v>
+        <v>-2</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -21637,20 +21637,20 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C95" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="D95" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -21866,20 +21866,20 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B96" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C96" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>27</v>
+        <v>-13</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -22098,17 +22098,17 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -22324,20 +22324,20 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -23007,20 +23007,20 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B101" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -23230,16 +23230,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -23453,20 +23453,20 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B103" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C103" t="n">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="D103" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -23676,20 +23676,20 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="B104" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C104" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -23899,20 +23899,20 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="B105" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="D105" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -24122,20 +24122,20 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="B106" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C106" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="D106" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -24348,17 +24348,17 @@
         <v>3</v>
       </c>
       <c r="B107" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C107" t="n">
         <v>3</v>
       </c>
       <c r="D107" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -24571,17 +24571,17 @@
         <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -24791,20 +24791,20 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -25483,13 +25483,13 @@
         <v>1</v>
       </c>
       <c r="B112" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
         <v>1</v>
-      </c>
-      <c r="D112" t="n">
-        <v>-1</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -25699,16 +25699,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B113" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -25921,13 +25921,13 @@
         <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C114" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D114" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -26137,20 +26137,20 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="B115" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C115" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D115" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
@@ -26356,20 +26356,20 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
+        <v>0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>8</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D116" t="n">
         <v>-1</v>
       </c>
-      <c r="B116" t="n">
-        <v>14</v>
-      </c>
-      <c r="C116" t="n">
-        <v>6</v>
-      </c>
-      <c r="D116" t="n">
-        <v>-6</v>
-      </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -26575,20 +26575,20 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="B117" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C117" t="n">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="D117" t="n">
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
@@ -26794,20 +26794,20 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B118" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D118" t="n">
-        <v>35</v>
+        <v>-3</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
@@ -27013,20 +27013,20 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
@@ -27232,20 +27232,20 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
@@ -27885,20 +27885,20 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B123" t="n">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="C123" t="n">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="D123" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -28114,16 +28114,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B124" t="n">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="C124" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D124" t="n">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -28343,20 +28343,20 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B125" t="n">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D125" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -28572,20 +28572,20 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B126" t="n">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C126" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D126" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -28801,20 +28801,20 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="B127" t="n">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C127" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D127" t="n">
         <v>2</v>
       </c>
-      <c r="D127" t="n">
-        <v>-13</v>
-      </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -29030,20 +29030,20 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B128" t="n">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C128" t="n">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="D128" t="n">
-        <v>-13</v>
+        <v>9</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -29259,20 +29259,20 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B129" t="n">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="C129" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -29488,20 +29488,20 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -29717,20 +29717,20 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -30400,16 +30400,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B134" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -30619,16 +30619,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B135" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C135" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -30838,16 +30838,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B136" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C136" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -31057,16 +31057,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B137" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D137" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -31276,16 +31276,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B138" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C138" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D138" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -31498,17 +31498,17 @@
         <v>1</v>
       </c>
       <c r="B139" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C139" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D139" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
@@ -31714,20 +31714,20 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B140" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C140" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
@@ -31933,16 +31933,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -32152,20 +32152,20 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
@@ -32805,16 +32805,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="B145" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C145" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -33028,20 +33028,20 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="B146" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C146" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D146" t="n">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -33251,20 +33251,20 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="B147" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C147" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -33474,20 +33474,20 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="B148" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C148" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D148" t="n">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -33697,20 +33697,20 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="B149" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="D149" t="n">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -33928,20 +33928,20 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B150" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C150" t="n">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="D150" t="n">
-        <v>-11</v>
+        <v>3</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -34159,20 +34159,20 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B151" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C151" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>67</v>
+        <v>-1</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -34390,16 +34390,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -34621,20 +34621,20 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -35310,16 +35310,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="B156" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C156" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D156" t="n">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -35541,16 +35541,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B157" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C157" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D157" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -35768,20 +35768,20 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B158" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C158" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
@@ -35995,20 +35995,20 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B159" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C159" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D159" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -36222,20 +36222,20 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B160" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="D160" t="n">
-        <v>-68</v>
+        <v>-1</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -36449,20 +36449,20 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="B161" t="n">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="C161" t="n">
-        <v>-12</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
@@ -36676,20 +36676,20 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B162" t="n">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="C162" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D162" t="n">
-        <v>103</v>
+        <v>-66</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -36906,17 +36906,17 @@
         <v>0</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -37130,20 +37130,20 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -37802,17 +37802,17 @@
         <v>0</v>
       </c>
       <c r="B167" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
@@ -38021,17 +38021,17 @@
         <v>-1</v>
       </c>
       <c r="B168" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>-24</v>
+        <v>-4</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
@@ -38237,20 +38237,20 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="B169" t="n">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C169" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D169" t="n">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
@@ -38459,13 +38459,13 @@
         <v>0</v>
       </c>
       <c r="B170" t="n">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C170" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D170" t="n">
-        <v>-13</v>
+        <v>-25</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -38675,20 +38675,20 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="B171" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C171" t="n">
-        <v>11</v>
+        <v>-3</v>
       </c>
       <c r="D171" t="n">
-        <v>-31</v>
+        <v>-15</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -38894,20 +38894,20 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="B172" t="n">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="C172" t="n">
-        <v>-10</v>
+        <v>4</v>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
@@ -39113,20 +39113,20 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="B173" t="n">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="C173" t="n">
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="D173" t="n">
-        <v>115</v>
+        <v>-11</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -39332,20 +39332,20 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -39551,20 +39551,20 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -40204,20 +40204,20 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="B178" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C178" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -40438,17 +40438,17 @@
         <v>-3</v>
       </c>
       <c r="B179" t="n">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>-14</v>
+        <v>-3</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -40666,20 +40666,20 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="B180" t="n">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="C180" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D180" t="n">
-        <v>-19</v>
+        <v>-11</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -40897,20 +40897,20 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B181" t="n">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -41128,20 +41128,20 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B182" t="n">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D182" t="n">
-        <v>-89</v>
+        <v>-18</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -41359,20 +41359,20 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B183" t="n">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="C183" t="n">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="D183" t="n">
-        <v>-32</v>
+        <v>-11</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -41590,20 +41590,20 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="C184" t="n">
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="D184" t="n">
-        <v>233</v>
+        <v>-78</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -41821,20 +41821,20 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -42052,20 +42052,20 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -42741,16 +42741,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B189" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C189" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -42962,20 +42962,20 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B190" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C190" t="n">
+        <v>2</v>
+      </c>
+      <c r="D190" t="n">
         <v>-1</v>
       </c>
-      <c r="D190" t="n">
-        <v>-17</v>
-      </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -43183,16 +43183,16 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B191" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -43407,17 +43407,17 @@
         <v>-3</v>
       </c>
       <c r="B192" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C192" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D192" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -43625,20 +43625,20 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B193" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C193" t="n">
         <v>-1</v>
       </c>
       <c r="D193" t="n">
-        <v>-26</v>
+        <v>-8</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -43846,20 +43846,20 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B194" t="n">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="C194" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="D194" t="n">
-        <v>-21</v>
+        <v>-8</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -44067,20 +44067,20 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B195" t="n">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C195" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>107</v>
+        <v>-10</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -44291,17 +44291,17 @@
         <v>0</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -44509,20 +44509,20 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -45168,20 +45168,20 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="B200" t="n">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="C200" t="n">
-        <v>2</v>
+        <v>-9</v>
       </c>
       <c r="D200" t="n">
-        <v>-3</v>
+        <v>-20</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -45389,20 +45389,20 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B201" t="n">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C201" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -45610,20 +45610,20 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B202" t="n">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D202" t="n">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -45831,20 +45831,20 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B203" t="n">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D203" t="n">
-        <v>-37</v>
+        <v>12</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -46052,16 +46052,16 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="B204" t="n">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D204" t="n">
-        <v>-93</v>
+        <v>-59</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -46273,16 +46273,16 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="B205" t="n">
-        <v>253</v>
+        <v>90</v>
       </c>
       <c r="C205" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="D205" t="n">
-        <v>-14</v>
+        <v>-53</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -46494,20 +46494,20 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B206" t="n">
-        <v>267</v>
+        <v>143</v>
       </c>
       <c r="C206" t="n">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="D206" t="n">
-        <v>267</v>
+        <v>-86</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -46715,20 +46715,20 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -46936,20 +46936,20 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -47595,20 +47595,20 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B211" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C211" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F211" t="inlineStr"/>
@@ -47814,20 +47814,20 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B212" t="n">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D212" t="n">
-        <v>-8</v>
+        <v>-18</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
@@ -48033,16 +48033,16 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B213" t="n">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C213" t="n">
         <v>-5</v>
       </c>
       <c r="D213" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -48252,16 +48252,16 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B214" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C214" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D214" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -48471,20 +48471,20 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B215" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C215" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="D215" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F215" t="inlineStr"/>
@@ -48690,20 +48690,20 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B216" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="C216" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D216" t="n">
-        <v>-13</v>
+        <v>2</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F216" t="inlineStr"/>
@@ -48909,20 +48909,20 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B217" t="n">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="C217" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D217" t="n">
-        <v>103</v>
+        <v>-19</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -49128,20 +49128,20 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F218" t="inlineStr"/>
@@ -49347,20 +49347,20 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -50432,14 +50432,14 @@
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -50635,20 +50635,20 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
@@ -51280,14 +51280,14 @@
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>-26</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
@@ -51483,20 +51483,20 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
@@ -51700,20 +51700,20 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
@@ -52343,20 +52343,20 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B233" t="n">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D233" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -52569,17 +52569,17 @@
         <v>6</v>
       </c>
       <c r="B234" t="n">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C234" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D234" t="n">
-        <v>-31</v>
+        <v>-7</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -52789,20 +52789,20 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B235" t="n">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C235" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>-54</v>
+        <v>2</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -53012,20 +53012,20 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B236" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="C236" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="D236" t="n">
-        <v>-83</v>
+        <v>-21</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -53235,20 +53235,20 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B237" t="n">
-        <v>233</v>
+        <v>65</v>
       </c>
       <c r="C237" t="n">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="D237" t="n">
-        <v>-4</v>
+        <v>-52</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -53458,16 +53458,16 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B238" t="n">
-        <v>237</v>
+        <v>117</v>
       </c>
       <c r="C238" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="D238" t="n">
-        <v>-24</v>
+        <v>-89</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -53681,20 +53681,20 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B239" t="n">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="C239" t="n">
-        <v>32</v>
+        <v>-7</v>
       </c>
       <c r="D239" t="n">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -53904,20 +53904,20 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -54127,20 +54127,20 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -54792,16 +54792,16 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B244" t="n">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="C244" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D244" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -55023,20 +55023,20 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B245" t="n">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="C245" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D245" t="n">
-        <v>-2</v>
+        <v>-24</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -55254,20 +55254,20 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B246" t="n">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="C246" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D246" t="n">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -55485,20 +55485,20 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B247" t="n">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="C247" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="D247" t="n">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -55716,20 +55716,20 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B248" t="n">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C248" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="D248" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -55947,20 +55947,20 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B249" t="n">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="C249" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D249" t="n">
-        <v>-6</v>
+        <v>15</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -56178,20 +56178,20 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B250" t="n">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="C250" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D250" t="n">
-        <v>117</v>
+        <v>-16</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -56409,20 +56409,20 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -56643,17 +56643,17 @@
         <v>0</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -57329,20 +57329,20 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B255" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D255" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F255" t="inlineStr"/>
@@ -57546,13 +57546,13 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B256" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256" t="n">
         <v>0</v>
@@ -57763,16 +57763,16 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B257" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C257" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -57980,16 +57980,16 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B258" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D258" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -58197,16 +58197,16 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B259" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D259" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -58414,20 +58414,20 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B260" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C260" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="D260" t="n">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -58631,20 +58631,20 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B261" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D261" t="n">
-        <v>39</v>
+        <v>-9</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -58848,20 +58848,20 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
@@ -59065,20 +59065,20 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
@@ -59712,20 +59712,20 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>-20</v>
+        <v>-4</v>
       </c>
       <c r="B266" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C266" t="n">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="D266" t="n">
-        <v>-19</v>
+        <v>-2</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F266" t="inlineStr"/>
@@ -59929,20 +59929,20 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="B267" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C267" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="D267" t="n">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F267" t="inlineStr"/>
@@ -60146,20 +60146,20 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>-1</v>
+        <v>-14</v>
       </c>
       <c r="B268" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C268" t="n">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="D268" t="n">
-        <v>3</v>
+        <v>-13</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F268" t="inlineStr"/>
@@ -60363,16 +60363,16 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>6</v>
+        <v>-11</v>
       </c>
       <c r="B269" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C269" t="n">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="D269" t="n">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -60580,13 +60580,13 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B270" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C270" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="D270" t="n">
         <v>0</v>
@@ -60797,16 +60797,16 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B271" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C271" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="D271" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -61014,20 +61014,20 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B272" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C272" t="n">
-        <v>46</v>
+        <v>-1</v>
       </c>
       <c r="D272" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F272" t="inlineStr"/>
@@ -61231,20 +61231,20 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F273" t="inlineStr"/>
@@ -61448,20 +61448,20 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F274" t="inlineStr"/>
@@ -62095,20 +62095,20 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B277" t="n">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="C277" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D277" t="n">
-        <v>-17</v>
+        <v>38</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -62326,20 +62326,20 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B278" t="n">
-        <v>191</v>
+        <v>66</v>
       </c>
       <c r="C278" t="n">
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="D278" t="n">
-        <v>-8</v>
+        <v>-15</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F278" t="inlineStr"/>
@@ -62553,16 +62553,16 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="B279" t="n">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="C279" t="n">
         <v>-3</v>
       </c>
       <c r="D279" t="n">
-        <v>-18</v>
+        <v>-59</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -62780,16 +62780,16 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="B280" t="n">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="C280" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="D280" t="n">
-        <v>-17</v>
+        <v>-31</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -63007,20 +63007,20 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B281" t="n">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="C281" t="n">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="D281" t="n">
         <v>24</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F281" t="inlineStr"/>
@@ -63234,20 +63234,20 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B282" t="n">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="C282" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="D282" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F282" t="inlineStr"/>
@@ -63461,16 +63461,16 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B283" t="n">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="C283" t="n">
         <v>17</v>
       </c>
       <c r="D283" t="n">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -63688,16 +63688,16 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -63915,20 +63915,20 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F285" t="inlineStr"/>
@@ -64592,20 +64592,20 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="B288" t="n">
-        <v>300</v>
+        <v>162</v>
       </c>
       <c r="C288" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D288" t="n">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F288" t="inlineStr"/>
@@ -64811,20 +64811,20 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="B289" t="n">
-        <v>297</v>
+        <v>170</v>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="D289" t="n">
-        <v>-31</v>
+        <v>-21</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F289" t="inlineStr"/>
@@ -65030,20 +65030,20 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B290" t="n">
-        <v>328</v>
+        <v>191</v>
       </c>
       <c r="C290" t="n">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="D290" t="n">
-        <v>-22</v>
+        <v>4</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F290" t="inlineStr"/>
@@ -65249,20 +65249,20 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B291" t="n">
-        <v>350</v>
+        <v>187</v>
       </c>
       <c r="C291" t="n">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="D291" t="n">
-        <v>-3</v>
+        <v>-26</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F291" t="inlineStr"/>
@@ -65468,20 +65468,20 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B292" t="n">
-        <v>353</v>
+        <v>213</v>
       </c>
       <c r="C292" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F292" t="inlineStr"/>
@@ -65687,16 +65687,16 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B293" t="n">
-        <v>353</v>
+        <v>212</v>
       </c>
       <c r="C293" t="n">
         <v>-6</v>
       </c>
       <c r="D293" t="n">
-        <v>-48</v>
+        <v>-15</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -65906,20 +65906,20 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B294" t="n">
-        <v>401</v>
+        <v>227</v>
       </c>
       <c r="C294" t="n">
-        <v>19</v>
+        <v>-4</v>
       </c>
       <c r="D294" t="n">
-        <v>401</v>
+        <v>11</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F294" t="inlineStr"/>
@@ -66125,20 +66125,20 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D295" t="n">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F295" t="inlineStr"/>
@@ -66344,20 +66344,20 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D296" t="n">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F296" t="inlineStr"/>
